--- a/content/news.xlsx
+++ b/content/news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarut\Documents\Github\cept\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF84EC32-3D5E-43AB-86E3-38DF6DAC0E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12225981-45A2-42BA-BCFF-F9D4787B54F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -34,9 +34,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>Collaboration with PEA on Smart Grid</t>
   </si>
   <si>
@@ -46,21 +43,9 @@
     <t>Announcement</t>
   </si>
   <si>
-    <t>assets/images/news/news-201.jpg</t>
-  </si>
-  <si>
-    <t>CEPT Welcomes International Researchers</t>
-  </si>
-  <si>
-    <t>15 Jan 2026</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
-    <t>assets/images/news/news-202.jpg</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
@@ -71,13 +56,25 @@
   </si>
   <si>
     <t>This is news</t>
+  </si>
+  <si>
+    <t>Building Energy Management Systems (BEMS) have evolved significantly through the integration of IoT and AI, enabling sophisticated energy analysis and optimization that is now accessible to both large organizations and individual users. To address these advancements, the Smart Grid Research Unit (SGRU) and the Center of Excellence in Electrical Power Technology (CEPT) at Chulalongkorn University are hosting the "Smart Building Data Analytics" course on March 12-13, 2020. This program is designed to equip participants with practical expertise in applying AI and Big Data analytics to enhance energy management, aligning with current global technological trends.</t>
+  </si>
+  <si>
+    <t>SGRU and CEPT to Host "Smart Building Data Analytics" Workshop on AI-Driven Energy Management</t>
+  </si>
+  <si>
+    <t>12-13 Mar 2020</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1v0jfCB_yGTld_LgZBUqY-COEVeQh0lxx/view?usp=drive_link, https://drive.google.com/file/d/1tBnLfQddPVHBfKwgbfxOK96UV8a-8ybl/view?usp=drive_link, https://drive.google.com/file/d/1I_AwRAwLcxNczYM8TVcGQ3qCZ17_yPQB/view?usp=drive_link, https://drive.google.com/file/d/1GiMyGgwBBY_c4trGpkKRJq6WyVVCRk4g/view?usp=drive_link, https://drive.google.com/file/d/1tBGB_ecQerpYyf5zEja830-NpDnlvZQE/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +86,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF787C99"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,13 +140,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,19 +456,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="36" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="71.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,56 +487,50 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
